--- a/PECData.xlsx
+++ b/PECData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psaxena\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psaxena\Desktop\2025\Prime Events Committeee 2025\Chatbot\PEC Updated V1.0\FestavaLive-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE944D5-8B04-48B1-8D87-C711CE519C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA0DAB5-4D08-41F7-A9A9-87F6A0DE8763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="979">
   <si>
     <t>Sharma, Meenakshi</t>
   </si>
@@ -2967,6 +2967,12 @@
   </si>
   <si>
     <t>Manisha</t>
+  </si>
+  <si>
+    <t>Parveen Kumar</t>
+  </si>
+  <si>
+    <t>I1047</t>
   </si>
 </sst>
 </file>
@@ -3300,9 +3306,7 @@
   </sheetPr>
   <dimension ref="A1:D4331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10158,9 +10162,18 @@
       </c>
     </row>
     <row r="490" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A490" s="4"/>
-      <c r="B490" s="5"/>
-      <c r="C490" s="4"/>
+      <c r="A490" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="B490" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="C490" s="4">
+        <v>198</v>
+      </c>
+      <c r="D490">
+        <v>3</v>
+      </c>
     </row>
     <row r="491" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="4"/>
